--- a/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968EBA09-BBC4-4D68-BA79-F26BCCFF4B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="Status" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="255">
   <si>
     <t>備註說明</t>
   </si>
@@ -681,22 +691,6 @@
   <si>
     <t>FacmNo asc,BormNo asc, NextPayIntDate asc</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: 正常戶
-1:展期
-2: 催收戶
-3: 結案戶
-4: 逾期戶
-5: 催收結案戶
-6: 呆帳戶
-7: 部分轉呆戶
-8: 債權轉讓戶
-9: 呆帳結案戶
-97:預約撥款已刪除
-98:預約已撥款
-99:預約撥款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>共用代碼檔
@@ -1029,12 +1023,36 @@
 3STEP TX -&gt; 1 2 3 4   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>0: 正常戶
+1:展期
+2: 催收戶
+3: 結案戶
+4: 逾期戶(顯示用)
+5: 催收結案戶
+6: 呆帳戶
+7: 部分轉呆戶
+8: 債權轉讓戶
+9: 呆帳結案戶
+97:預約撥款已刪除
+98:預約已撥款
+99:預約撥款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手續費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandlingFee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1120,13 +1138,6 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1264,7 +1275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1404,18 +1415,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1529,6 +1537,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1564,6 +1589,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1739,11 +1781,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1758,10 +1800,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="11" t="s">
         <v>130</v>
       </c>
@@ -1773,8 +1815,8 @@
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
@@ -1786,10 +1828,10 @@
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="7" t="s">
         <v>153</v>
       </c>
@@ -1801,10 +1843,10 @@
       <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="7" t="s">
         <v>129</v>
       </c>
@@ -1816,12 +1858,12 @@
       <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="29"/>
@@ -1829,10 +1871,10 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="6"/>
       <c r="D6" s="37"/>
       <c r="E6" s="33"/>
@@ -1840,10 +1882,10 @@
       <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="6"/>
       <c r="D7" s="37"/>
       <c r="E7" s="35"/>
@@ -1894,7 +1936,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <f t="shared" ref="A10:A80" si="0">A9+1</f>
+        <f t="shared" ref="A10:A81" si="0">A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -1991,7 +2033,7 @@
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="15" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2101,7 +2143,7 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2216,7 +2258,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>56</v>
@@ -2316,10 +2358,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>203</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>204</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>116</v>
@@ -2329,7 +2371,7 @@
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
@@ -2351,7 +2393,7 @@
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2445,7 +2487,7 @@
         <v>161</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>112</v>
@@ -2462,10 +2504,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>176</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>177</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>112</v>
@@ -2535,7 +2577,7 @@
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2557,7 +2599,7 @@
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2727,19 +2769,19 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="18">
         <v>16</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="18">
         <v>2</v>
       </c>
       <c r="G50" s="26"/>
@@ -2750,10 +2792,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>112</v>
@@ -2772,21 +2814,21 @@
         <v>44</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E52" s="12">
-        <v>1</v>
-      </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="26" t="s">
-        <v>44</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F52" s="12">
+        <v>2</v>
+      </c>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
@@ -2794,171 +2836,173 @@
         <v>45</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E53" s="12">
         <v>1</v>
       </c>
       <c r="F53" s="12"/>
-      <c r="G53" s="25" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="243" x14ac:dyDescent="0.3">
+      <c r="G53" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E54" s="12">
         <v>1</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="243" x14ac:dyDescent="0.3">
+      <c r="A55" s="40">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="12">
+        <v>1</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="40">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" s="46" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="46">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B55" s="47" t="s">
+      <c r="D56" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="47">
+        <v>1</v>
+      </c>
+      <c r="F56" s="47"/>
+      <c r="G56" s="48" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="40">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B57" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C55" s="47" t="s">
+      <c r="C57" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="D55" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="48">
-        <v>1</v>
-      </c>
-      <c r="F55" s="48"/>
-      <c r="G55" s="49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="46">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B56" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="D56" s="48" t="s">
+      <c r="D57" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="48">
+      <c r="E57" s="47">
         <v>16</v>
       </c>
-      <c r="F56" s="48">
+      <c r="F57" s="47">
         <v>2</v>
       </c>
-      <c r="G56" s="50"/>
-    </row>
-    <row r="57" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="40">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B57" s="13" t="s">
+      <c r="G57" s="49"/>
+    </row>
+    <row r="58" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="40">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" s="18" t="s">
+      <c r="C58" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E58" s="12">
         <v>2</v>
       </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="40">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B58" s="13" t="s">
+      <c r="F58" s="12"/>
+      <c r="G58" s="25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="40">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D59" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E59" s="12">
         <v>3</v>
       </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="25"/>
-    </row>
-    <row r="59" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="40">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B59" s="13" t="s">
+      <c r="F59" s="12"/>
+      <c r="G59" s="25"/>
+    </row>
+    <row r="60" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="40">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D60" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E60" s="12">
         <v>2</v>
       </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="38" t="s">
+      <c r="F60" s="12"/>
+      <c r="G60" s="38" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="40">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E60" s="12">
-        <v>100</v>
-      </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="15"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
@@ -2966,19 +3010,19 @@
         <v>53</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E61" s="12">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F61" s="12"/>
-      <c r="G61" s="26"/>
+      <c r="G61" s="15"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
@@ -2986,16 +3030,16 @@
         <v>54</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E62" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="26"/>
@@ -3006,64 +3050,62 @@
         <v>55</v>
       </c>
       <c r="B63" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="12">
+        <v>8</v>
+      </c>
+      <c r="F63" s="12"/>
+      <c r="G63" s="26"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="40">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D64" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="E63" s="12">
-        <v>1</v>
-      </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="40">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>112</v>
       </c>
       <c r="E64" s="12">
         <v>1</v>
       </c>
       <c r="F64" s="12"/>
-      <c r="G64" s="25" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G64" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="3">
-        <v>8</v>
-      </c>
-      <c r="F65" s="18"/>
-      <c r="G65" s="26" t="s">
-        <v>51</v>
+        <v>126</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" s="12">
+        <v>1</v>
+      </c>
+      <c r="F65" s="12"/>
+      <c r="G65" s="25" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -3072,19 +3114,21 @@
         <v>58</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E66" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F66" s="18"/>
-      <c r="G66" s="26"/>
+      <c r="G66" s="26" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
@@ -3092,16 +3136,16 @@
         <v>59</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>116</v>
       </c>
       <c r="E67" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="26"/>
@@ -3112,16 +3156,16 @@
         <v>60</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>50</v>
+        <v>184</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="E68" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="26"/>
@@ -3132,21 +3176,19 @@
         <v>61</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="E69" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F69" s="18"/>
-      <c r="G69" s="26" t="s">
-        <v>52</v>
-      </c>
+      <c r="G69" s="26"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
@@ -3154,19 +3196,21 @@
         <v>62</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="D70" s="22" t="s">
         <v>116</v>
       </c>
       <c r="E70" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" s="18"/>
-      <c r="G70" s="26"/>
+      <c r="G70" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
@@ -3174,16 +3218,16 @@
         <v>63</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E71" s="3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="26"/>
@@ -3194,16 +3238,16 @@
         <v>64</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E72" s="3">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="26"/>
@@ -3213,17 +3257,17 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>151</v>
+      <c r="B73" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E73" s="3">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="26"/>
@@ -3233,17 +3277,17 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>55</v>
+      <c r="B74" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E74" s="3">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="26"/>
@@ -3254,16 +3298,16 @@
         <v>67</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E75" s="3">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="26"/>
@@ -3273,19 +3317,19 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D76" s="18" t="s">
+      <c r="B76" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="3">
         <v>8</v>
       </c>
-      <c r="F76" s="12"/>
+      <c r="F76" s="18"/>
       <c r="G76" s="26"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -3293,19 +3337,19 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="B77" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>202</v>
+      <c r="B77" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E77" s="18">
-        <v>4</v>
-      </c>
-      <c r="F77" s="18"/>
+        <v>131</v>
+      </c>
+      <c r="E77" s="12">
+        <v>8</v>
+      </c>
+      <c r="F77" s="12"/>
       <c r="G77" s="26"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3314,17 +3358,19 @@
         <v>70</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>68</v>
+        <v>200</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="15"/>
+        <v>117</v>
+      </c>
+      <c r="E78" s="18">
+        <v>4</v>
+      </c>
+      <c r="F78" s="18"/>
+      <c r="G78" s="26"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
@@ -3332,17 +3378,15 @@
         <v>71</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E79" s="12">
-        <v>6</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E79" s="12"/>
       <c r="F79" s="12"/>
       <c r="G79" s="15"/>
     </row>
@@ -3352,40 +3396,60 @@
         <v>72</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E80" s="12"/>
+        <v>116</v>
+      </c>
+      <c r="E80" s="12">
+        <v>6</v>
+      </c>
       <c r="F80" s="12"/>
       <c r="G80" s="15"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <f t="shared" ref="A81" si="1">A80+1</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E81" s="12">
-        <v>6</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="15"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B83" s="6"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <f t="shared" ref="A82" si="1">A81+1</f>
+        <v>74</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E82" s="12">
+        <v>6</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="15"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3404,7 +3468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3436,10 +3500,10 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3455,10 +3519,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>154</v>
@@ -3466,32 +3530,32 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>173</v>
@@ -3499,24 +3563,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3527,7 +3591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3544,13 +3608,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>227</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -3558,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -3569,10 +3633,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3580,10 +3644,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3591,10 +3655,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3602,10 +3666,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3613,10 +3677,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3624,10 +3688,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3635,10 +3699,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3646,10 +3710,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3657,10 +3721,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3668,10 +3732,10 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3679,10 +3743,10 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
@@ -3690,10 +3754,10 @@
         <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
